--- a/Excel/Army.xlsx
+++ b/Excel/Army.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B787110-D1F5-46FC-8BC2-25A59FBC98BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129E8784-07BE-4CE9-A042-3750193850C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Army" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>索引</t>
   </si>
@@ -246,6 +246,22 @@
   </si>
   <si>
     <t>Attack:14,Defense:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:10,food:70,wood:60,metal:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:12,food:80,wood:70,metal:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:8,food:60,wood:50,metal:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:15,food:90,wood:80,metal:60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +677,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L14" sqref="L14:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -876,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -915,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -954,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -993,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1071,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -1110,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1149,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -1188,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -1266,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1305,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -1344,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -1383,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Army.xlsx
+++ b/Excel/Army.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129E8784-07BE-4CE9-A042-3750193850C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEE214C-ECA0-449B-AC26-A40375382141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Army" sheetId="1" r:id="rId1"/>
+    <sheet name="CareerEvaluate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>索引</t>
   </si>
@@ -262,6 +263,14 @@
   </si>
   <si>
     <t>gold:15,food:90,wood:80,metal:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1407,4 +1416,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2C5215-7331-4F2B-ABFB-1178B5A95C1D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="30.625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Army.xlsx
+++ b/Excel/Army.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEE214C-ECA0-449B-AC26-A40375382141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3075565D-613C-41A1-8251-890F76FE4A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Army" sheetId="1" r:id="rId1"/>
@@ -103,19 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行军速度类型
-1-极慢
-2-缓慢
-3-普通
-4-快速
-5-极快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarchSpeedType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +258,15 @@
   </si>
   <si>
     <t>Percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">速度系数
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,7 +699,7 @@
     <col min="13" max="13" width="16.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -711,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
@@ -723,25 +719,25 @@
         <v>11</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -752,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>14</v>
@@ -764,25 +760,25 @@
         <v>8</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -832,13 +828,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -850,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" s="6">
         <v>100</v>
@@ -862,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -871,13 +867,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -889,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="6">
         <v>120</v>
@@ -901,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -910,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -928,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" s="6">
         <v>130</v>
@@ -940,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -949,13 +945,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -967,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I7" s="6">
         <v>140</v>
@@ -979,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -988,13 +984,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -1006,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="6">
         <v>150</v>
@@ -1018,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1027,13 +1023,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
@@ -1045,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="6">
         <v>100</v>
@@ -1057,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -1066,13 +1062,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1084,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I10" s="6">
         <v>120</v>
@@ -1096,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -1105,13 +1101,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -1123,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I11" s="6">
         <v>130</v>
@@ -1135,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1144,13 +1140,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -1162,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I12" s="6">
         <v>140</v>
@@ -1174,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -1183,13 +1179,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -1201,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I13" s="6">
         <v>150</v>
@@ -1213,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -1222,13 +1218,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -1240,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I14" s="6">
         <v>100</v>
@@ -1252,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -1261,13 +1257,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
@@ -1279,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I15" s="6">
         <v>120</v>
@@ -1291,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1300,13 +1296,13 @@
         <v>33</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6">
         <v>3</v>
@@ -1318,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16" s="6">
         <v>130</v>
@@ -1330,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -1339,13 +1335,13 @@
         <v>34</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E17" s="6">
         <v>3</v>
@@ -1357,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="6">
         <v>140</v>
@@ -1369,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -1378,13 +1374,13 @@
         <v>35</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="6">
         <v>3</v>
@@ -1396,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="6">
         <v>150</v>
@@ -1408,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2C5215-7331-4F2B-ABFB-1178B5A95C1D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
@@ -1437,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1445,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">

--- a/Excel/Army.xlsx
+++ b/Excel/Army.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3075565D-613C-41A1-8251-890F76FE4A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586836C1-5866-4515-A505-0A2D6F0D54F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>索引</t>
   </si>
@@ -167,14 +167,6 @@
     <t>弓兵5</t>
   </si>
   <si>
-    <t>GongBing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QiBing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>步兵1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +181,6 @@
   </si>
   <si>
     <t>步兵5</t>
-  </si>
-  <si>
-    <t>BuBing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>血量</t>
@@ -268,6 +256,54 @@
     <t xml:space="preserve">速度系数
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QiBing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QiBing2</t>
+  </si>
+  <si>
+    <t>QiBing3</t>
+  </si>
+  <si>
+    <t>QiBing4</t>
+  </si>
+  <si>
+    <t>QiBing5</t>
+  </si>
+  <si>
+    <t>GongBing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GongBing2</t>
+  </si>
+  <si>
+    <t>GongBing3</t>
+  </si>
+  <si>
+    <t>GongBing4</t>
+  </si>
+  <si>
+    <t>GongBing5</t>
+  </si>
+  <si>
+    <t>BuBing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuBing2</t>
+  </si>
+  <si>
+    <t>BuBing3</t>
+  </si>
+  <si>
+    <t>BuBing4</t>
+  </si>
+  <si>
+    <t>BuBing5</t>
   </si>
 </sst>
 </file>
@@ -682,7 +718,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,16 +755,16 @@
         <v>11</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>17</v>
@@ -760,16 +796,16 @@
         <v>8</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>18</v>
@@ -834,7 +870,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -846,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I4" s="6">
         <v>100</v>
@@ -873,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -885,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I5" s="6">
         <v>120</v>
@@ -897,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -912,7 +948,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -924,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I6" s="6">
         <v>130</v>
@@ -936,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -951,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -963,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="6">
         <v>140</v>
@@ -975,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -990,7 +1026,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -1002,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="6">
         <v>150</v>
@@ -1014,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1029,7 +1065,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
@@ -1041,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I9" s="6">
         <v>100</v>
@@ -1068,7 +1104,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1080,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I10" s="6">
         <v>120</v>
@@ -1092,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -1107,7 +1143,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -1119,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I11" s="6">
         <v>130</v>
@@ -1131,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -1146,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -1158,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I12" s="6">
         <v>140</v>
@@ -1170,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -1185,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -1197,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I13" s="6">
         <v>150</v>
@@ -1209,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -1218,13 +1254,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -1236,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I14" s="6">
         <v>100</v>
@@ -1257,13 +1293,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
@@ -1275,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I15" s="6">
         <v>120</v>
@@ -1287,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -1296,13 +1332,13 @@
         <v>33</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E16" s="6">
         <v>3</v>
@@ -1314,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16" s="6">
         <v>130</v>
@@ -1326,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -1335,13 +1371,13 @@
         <v>34</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6">
         <v>3</v>
@@ -1353,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I17" s="6">
         <v>140</v>
@@ -1365,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -1374,13 +1410,13 @@
         <v>35</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E18" s="6">
         <v>3</v>
@@ -1392,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I18" s="6">
         <v>150</v>
@@ -1404,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1441,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">

--- a/Excel/Army.xlsx
+++ b/Excel/Army.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586836C1-5866-4515-A505-0A2D6F0D54F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095B7BBE-ED27-423E-A57B-8F5F71B1BC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>索引</t>
   </si>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>Star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitAttribute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,12 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性
-Attack-攻击
-Defense-防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Blood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,26 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack:10,Defense:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack:11,Defense:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack:12,Defense:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack:13,Defense:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack:14,Defense:28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold:10,food:70,wood:60,metal:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,11 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">速度系数
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QiBing1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,6 +269,19 @@
   </si>
   <si>
     <t>BuBing5</t>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度
+系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -715,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,13 +707,14 @@
     <col min="5" max="5" width="8" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="6" customWidth="1"/>
     <col min="7" max="7" width="20" style="6" customWidth="1"/>
-    <col min="8" max="8" width="48.375" style="6" customWidth="1"/>
-    <col min="9" max="11" width="16.75" style="6" customWidth="1"/>
-    <col min="12" max="12" width="50" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="38.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="36.125" style="6" customWidth="1"/>
+    <col min="10" max="12" width="16.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="50" style="6" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -743,40 +722,39 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -784,10 +762,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
@@ -796,28 +774,31 @@
         <v>8</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -840,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>2</v>
@@ -852,64 +833,70 @@
         <v>2</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A18" si="0">E4*10+F4</f>
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>100</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>5</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="6">
-        <v>100</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -918,37 +905,40 @@
         <v>2</v>
       </c>
       <c r="G5" s="6">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="6">
+        <v>15</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="6">
         <v>120</v>
       </c>
-      <c r="J5" s="6">
-        <v>2</v>
-      </c>
       <c r="K5" s="6">
         <v>2</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L5" s="6">
+        <v>2</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -957,37 +947,40 @@
         <v>3</v>
       </c>
       <c r="G6" s="6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
         <v>130</v>
       </c>
-      <c r="J6" s="6">
-        <v>3</v>
-      </c>
       <c r="K6" s="6">
         <v>3</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L6" s="6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -996,37 +989,40 @@
         <v>4</v>
       </c>
       <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="6">
+        <v>30</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J7" s="6">
         <v>140</v>
-      </c>
-      <c r="J7" s="6">
-        <v>4</v>
       </c>
       <c r="K7" s="6">
         <v>4</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L7" s="6">
+        <v>4</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -1035,76 +1031,82 @@
         <v>5</v>
       </c>
       <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>3</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="J8" s="6">
         <v>150</v>
-      </c>
-      <c r="J8" s="6">
-        <v>5</v>
       </c>
       <c r="K8" s="6">
         <v>5</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L8" s="6">
+        <v>5</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>8</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>100</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>5</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="6">
-        <v>100</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1113,37 +1115,40 @@
         <v>2</v>
       </c>
       <c r="G10" s="6">
-        <v>4</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="6">
         <v>120</v>
       </c>
-      <c r="J10" s="6">
-        <v>2</v>
-      </c>
       <c r="K10" s="6">
         <v>2</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L10" s="6">
+        <v>2</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -1152,37 +1157,40 @@
         <v>3</v>
       </c>
       <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="6">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
         <v>130</v>
       </c>
-      <c r="J11" s="6">
-        <v>3</v>
-      </c>
       <c r="K11" s="6">
         <v>3</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L11" s="6">
+        <v>3</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -1191,37 +1199,40 @@
         <v>4</v>
       </c>
       <c r="G12" s="6">
-        <v>2</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="6">
+        <v>18</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J12" s="6">
         <v>140</v>
-      </c>
-      <c r="J12" s="6">
-        <v>4</v>
       </c>
       <c r="K12" s="6">
         <v>4</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L12" s="6">
+        <v>4</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -1230,76 +1241,82 @@
         <v>5</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="6">
+        <v>20</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="J13" s="6">
         <v>150</v>
-      </c>
-      <c r="J13" s="6">
-        <v>5</v>
       </c>
       <c r="K13" s="6">
         <v>5</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L13" s="6">
+        <v>5</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>100</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>5</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="6">
-        <v>100</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
@@ -1308,37 +1325,40 @@
         <v>2</v>
       </c>
       <c r="G15" s="6">
-        <v>4</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="6">
+        <v>5</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="6">
         <v>120</v>
       </c>
-      <c r="J15" s="6">
-        <v>2</v>
-      </c>
       <c r="K15" s="6">
         <v>2</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L15" s="6">
+        <v>2</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E16" s="6">
         <v>3</v>
@@ -1347,37 +1367,40 @@
         <v>3</v>
       </c>
       <c r="G16" s="6">
-        <v>3</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="6">
+        <v>8</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
         <v>130</v>
       </c>
-      <c r="J16" s="6">
-        <v>3</v>
-      </c>
       <c r="K16" s="6">
         <v>3</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L16" s="6">
+        <v>3</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6">
         <v>3</v>
@@ -1386,37 +1409,40 @@
         <v>4</v>
       </c>
       <c r="G17" s="6">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="6">
+        <v>11</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J17" s="6">
         <v>140</v>
-      </c>
-      <c r="J17" s="6">
-        <v>4</v>
       </c>
       <c r="K17" s="6">
         <v>4</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L17" s="6">
+        <v>4</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E18" s="6">
         <v>3</v>
@@ -1425,22 +1451,25 @@
         <v>5</v>
       </c>
       <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="6">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11">
+        <v>3</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="J18" s="6">
         <v>150</v>
-      </c>
-      <c r="J18" s="6">
-        <v>5</v>
       </c>
       <c r="K18" s="6">
         <v>5</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>53</v>
+      <c r="L18" s="6">
+        <v>5</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1477,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">

--- a/Excel/Army.xlsx
+++ b/Excel/Army.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095B7BBE-ED27-423E-A57B-8F5F71B1BC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31479DE5-D14F-4B56-BB8C-B29E6A6F1B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -827,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>2</v>
@@ -872,7 +872,7 @@
         <v>0.2</v>
       </c>
       <c r="J4" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>0.6</v>
       </c>
       <c r="J5" s="6">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="K5" s="6">
         <v>2</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="6">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="K6" s="6">
         <v>3</v>
@@ -998,7 +998,7 @@
         <v>1.4</v>
       </c>
       <c r="J7" s="6">
-        <v>140</v>
+        <v>1.4</v>
       </c>
       <c r="K7" s="6">
         <v>4</v>
@@ -1040,7 +1040,7 @@
         <v>1.8</v>
       </c>
       <c r="J8" s="6">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="K8" s="6">
         <v>5</v>
@@ -1082,7 +1082,7 @@
         <v>0.2</v>
       </c>
       <c r="J9" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>0.6</v>
       </c>
       <c r="J10" s="6">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="K10" s="6">
         <v>2</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="6">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="K11" s="6">
         <v>3</v>
@@ -1208,7 +1208,7 @@
         <v>1.4</v>
       </c>
       <c r="J12" s="6">
-        <v>140</v>
+        <v>1.4</v>
       </c>
       <c r="K12" s="6">
         <v>4</v>
@@ -1250,7 +1250,7 @@
         <v>1.8</v>
       </c>
       <c r="J13" s="6">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="K13" s="6">
         <v>5</v>
@@ -1292,7 +1292,7 @@
         <v>0.2</v>
       </c>
       <c r="J14" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0.6</v>
       </c>
       <c r="J15" s="6">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="K15" s="6">
         <v>2</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="6">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="K16" s="6">
         <v>3</v>
@@ -1418,7 +1418,7 @@
         <v>1.4</v>
       </c>
       <c r="J17" s="6">
-        <v>140</v>
+        <v>1.4</v>
       </c>
       <c r="K17" s="6">
         <v>4</v>
@@ -1460,7 +1460,7 @@
         <v>1.8</v>
       </c>
       <c r="J18" s="6">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="K18" s="6">
         <v>5</v>

--- a/Excel/Army.xlsx
+++ b/Excel/Army.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31479DE5-D14F-4B56-BB8C-B29E6A6F1B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8511F2BA-EF7A-4CC2-A700-6A2960018D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
   <si>
     <t>索引</t>
   </si>
@@ -281,6 +281,14 @@
   <si>
     <t>速度
 系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗一个所获得的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightOneExpAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -707,14 +715,15 @@
     <col min="5" max="5" width="8" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="6" customWidth="1"/>
     <col min="7" max="7" width="20" style="6" customWidth="1"/>
-    <col min="8" max="8" width="38.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="36.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17" style="6" customWidth="1"/>
     <col min="10" max="12" width="16.75" style="6" customWidth="1"/>
     <col min="13" max="13" width="50" style="6" customWidth="1"/>
     <col min="14" max="14" width="16.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -753,8 +762,11 @@
       <c r="N1" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O1" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -797,8 +809,11 @@
       <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -841,8 +856,11 @@
       <c r="N3" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A18" si="0">E4*10+F4</f>
         <v>11</v>
@@ -883,8 +901,11 @@
       <c r="M4" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -925,8 +946,11 @@
       <c r="M5" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O5" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -967,8 +991,11 @@
       <c r="M6" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O6" s="11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1009,8 +1036,11 @@
       <c r="M7" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1051,8 +1081,11 @@
       <c r="M8" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O8" s="11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1093,8 +1126,11 @@
       <c r="M9" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1135,8 +1171,11 @@
       <c r="M10" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O10" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1177,8 +1216,11 @@
       <c r="M11" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O11" s="11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1219,8 +1261,11 @@
       <c r="M12" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1261,8 +1306,11 @@
       <c r="M13" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13" s="11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1303,8 +1351,11 @@
       <c r="M14" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1345,8 +1396,11 @@
       <c r="M15" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O15" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1387,8 +1441,11 @@
       <c r="M16" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O16" s="11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1429,8 +1486,11 @@
       <c r="M17" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O17" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1470,6 +1530,9 @@
       </c>
       <c r="M18" s="11" t="s">
         <v>46</v>
+      </c>
+      <c r="O18" s="11">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
